--- a/src/test/resources/TestData/AmazonData.xlsx
+++ b/src/test/resources/TestData/AmazonData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="179">
   <si>
     <t>Product Name</t>
   </si>
@@ -409,6 +409,170 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/811EoUdM7QL._SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Sat Apr 13 17:59:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Nintendo Switch (OLED model) with White Joy-Con</t>
+  </si>
+  <si>
+    <t>32899</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61nqNujSF2L._SX522_.jpg</t>
+  </si>
+  <si>
+    <t>Sat Apr 13 18:01:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Original Iphone 15 Type C Wired Earphones with Microphone &amp; Remote Control Noise Cancelling Earbuds with Stereo Semi in Ear USB C Earphones Wired for iPhone 15/ 15 Plus, 15 Pro/ 15 Pro Max, White</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/417wJTuj1ZL._SY355_.jpg</t>
+  </si>
+  <si>
+    <t>Sat Apr 13 18:01:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Drumstone(10 Years Warranty Supermini Monaural Bluetooth Wirless Earbuds with Anti Dropping Ear Type Design Bluetooth Headset (True Wireless)</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41eS8RHPwAL._SY355_.jpg</t>
+  </si>
+  <si>
+    <t>Drumstone(10 Years Warranty Supermini Monaural Bluetoo…</t>
+  </si>
+  <si>
+    <t>699.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41eS8RHPwAL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>Original iPhone 15 Type C Wired Earphones with Micro…</t>
+  </si>
+  <si>
+    <t>1599.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/417wJTuj1ZL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>Nintendo Switch (OLED model) with White Joy-Con
+by Nintendo</t>
+  </si>
+  <si>
+    <t>32899.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61nqNujSF2L._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>AirPods Pro 2 Transparent Silicone Skin Cover Case - Tra…</t>
+  </si>
+  <si>
+    <t>Ear Hooks [8 pairs] Covers for Apple AirPods 1 &amp; 2 or iPhon…</t>
+  </si>
+  <si>
+    <t>Original iPhone 15 Type C Wired Earphones with Microphone &amp; Remote Control Noise Cancelling Earbuds with Stereo Semi in Ear USB C Earphones Wired for iPhone 15/15 Plus, 15 Pro/ 15 Pro Max, White</t>
+  </si>
+  <si>
+    <t>Sat Apr 13 18:04:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Vinod Magic Stainless Steel Smart 3 in 1 Pressure Cooker 3.5 Litre | 5mm Thick Base | All in One Cooker with Strainer &amp; Glass Lid | Induction and Gas Base | ISI certified | 2 Years Warranty</t>
+  </si>
+  <si>
+    <t>3099</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/614G6WDehdL._SY450_.jpg</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Plus (512 GB) - Purple</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 (256 GB) - Starlight</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 (256 GB) - (Product) RED</t>
+  </si>
+  <si>
+    <t>Sat Apr 13 18:08:33 IST 2024</t>
+  </si>
+  <si>
+    <t>DUDUSTRONG Carry Case Compatible with Nintendo Switch &amp; Nintendo Switch OLED Model 2021, Portable Travel Carry Case for Accessories and Console, Black</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71x4FKHV+-L._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>Sat Apr 13 18:09:57 IST 2024</t>
+  </si>
+  <si>
+    <t>TIZOQ Earpods Pro Second Generation Earphones with Bluetooth Wireless | Bluetooth Wireless Earphones (White)</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51w-+7Q1PGL._SY450_.jpg</t>
+  </si>
+  <si>
+    <t>Sat Apr 13 18:10:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Drumstone(Limited Time Offer Deal with 10 Years Warranty Classic Bluetooth Single Headset Truly Wireless Earbud in-Ear Headphones Single-Side Earphones with Mic for Business/Office/Driving</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41mNkKm2wPL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>Drumstone(Limited Time Offer Deal with 10 Years Warranty…</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41mNkKm2wPL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>TIZOQ Earpods Pro Second Generation Earphones with B…</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51w-+7Q1PGL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>DUDUSTRONG Carry Case Compatible with Nintendo S…
+by DUDUSTRONG</t>
+  </si>
+  <si>
+    <t>598.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71x4FKHV+-L._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>Sat Apr 13 18:15:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Steam Valve, Pressure Cooker Valve Replacement Part Accessories, with 3 Silicone Caps for Instant Pot LUX 5Qt, 6 Qt, IP-LUX50, IP-LUX60 Pressure Cooker Steam</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61trmfrh3TL._SX466_.jpg</t>
   </si>
 </sst>
 </file>
@@ -562,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="541">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1157,6 +1321,720 @@
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
@@ -1748,7 +2626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD4F907-ECED-4976-B684-EAF36B0CC592}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="B1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1768,6 +2646,16 @@
     </row>
     <row r="3">
       <c r="B3" t="s" s="199">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="303">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="414">
         <v>36</v>
       </c>
     </row>
@@ -1790,7 +2678,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157DE0E1-FD7A-4F70-8F29-3D1A1B5051FF}">
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -3042,6 +3930,310 @@
         <v>6</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="s" s="304">
+        <v>31</v>
+      </c>
+      <c r="B156" t="s" s="305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="306">
+        <v>37</v>
+      </c>
+      <c r="B157" t="s" s="307">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="308">
+        <v>38</v>
+      </c>
+      <c r="B158" t="s" s="309">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="310">
+        <v>31</v>
+      </c>
+      <c r="B159" t="s" s="311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="312">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s" s="313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="314">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s" s="315">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="316">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s" s="317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="318">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s" s="319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="320">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s" s="321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="322">
+        <v>16</v>
+      </c>
+      <c r="B165" t="s" s="323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="324">
+        <v>17</v>
+      </c>
+      <c r="B166" t="s" s="325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="326">
+        <v>18</v>
+      </c>
+      <c r="B167" t="s" s="327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="328">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s" s="329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="330">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s" s="331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="332">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s" s="333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="334">
+        <v>33</v>
+      </c>
+      <c r="B171" t="s" s="335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="B172" t="s" s="337">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="338">
+        <v>24</v>
+      </c>
+      <c r="B173" t="s" s="339">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="340">
+        <v>25</v>
+      </c>
+      <c r="B174" t="s" s="341">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="415">
+        <v>31</v>
+      </c>
+      <c r="B175" t="s" s="416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="417">
+        <v>99</v>
+      </c>
+      <c r="B176" t="s" s="418">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="419">
+        <v>38</v>
+      </c>
+      <c r="B177" t="s" s="420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="421">
+        <v>31</v>
+      </c>
+      <c r="B178" t="s" s="422">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="423">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s" s="424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="425">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s" s="426">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="427">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s" s="428">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="429">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s" s="430">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="431">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s" s="432">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="433">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s" s="434">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="435">
+        <v>17</v>
+      </c>
+      <c r="B185" t="s" s="436">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="437">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s" s="438">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="439">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s" s="440">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="441">
+        <v>32</v>
+      </c>
+      <c r="B188" t="s" s="442">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="443">
+        <v>153</v>
+      </c>
+      <c r="B189" t="s" s="444">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="445">
+        <v>154</v>
+      </c>
+      <c r="B190" t="s" s="446">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="447">
+        <v>26</v>
+      </c>
+      <c r="B191" t="s" s="448">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="449">
+        <v>155</v>
+      </c>
+      <c r="B192" t="s" s="450">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="451">
+        <v>25</v>
+      </c>
+      <c r="B193" t="s" s="452">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3049,7 +4241,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587F6E7-417F-4942-A622-4F6113405A96}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD47"/>
@@ -3285,6 +4477,142 @@
         <v>124</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="342">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s" s="343">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s" s="344">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s" s="345">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s" s="346">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="347">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s" s="348">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="349">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s" s="350">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s" s="351">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="352">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s" s="353">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s" s="354">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s" s="355">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s" s="356">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="403">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s" s="404">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s" s="405">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s" s="406">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s" s="407">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="453">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s" s="454">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s" s="455">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s" s="456">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s" s="457">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="458">
+        <v>160</v>
+      </c>
+      <c r="B19" t="s" s="459">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s" s="460">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s" s="461">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s" s="462">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="463">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s" s="464">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s" s="465">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s" s="466">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s" s="467">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="530">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s" s="531">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s" s="532">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s" s="533">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s" s="534">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3292,7 +4620,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
@@ -3568,6 +4896,266 @@
         <v>120</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="357">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s" s="358">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s" s="359">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s" s="360">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s" s="361">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s" s="362">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="363">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s" s="364">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s" s="365">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s" s="366">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s" s="367">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s" s="368">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="369">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s" s="370">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="371">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s" s="372">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s" s="373">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s" s="374">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="375">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s" s="376">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s" s="377">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s" s="378">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s" s="379">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s" s="380">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="381">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s" s="382">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s" s="383">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s" s="384">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s" s="385">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s" s="386">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="387">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s" s="388">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s" s="389">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s" s="390">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s" s="391">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s" s="392">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="468">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s" s="469">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s" s="470">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s" s="471">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s" s="472">
+        <v>168</v>
+      </c>
+      <c r="F20" t="s" s="473">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="474">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s" s="475">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s" s="476">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s" s="477">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s" s="478">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s" s="479">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="480">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s" s="481">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s" s="482">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s" s="483">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s" s="484">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s" s="485">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="486">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s" s="487">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s" s="488">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s" s="489">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s" s="490">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s" s="491">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="492">
+        <v>146</v>
+      </c>
+      <c r="B24" t="s" s="493">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s" s="494">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s" s="495">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s" s="496">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s" s="497">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="498">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s" s="499">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s" s="500">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s" s="501">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s" s="502">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s" s="503">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="504">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s" s="505">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s" s="506">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s" s="507">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s" s="508">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s" s="509">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3575,7 +5163,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9709AFC8-5DA7-42E1-8CC9-7FFC2FDEE40D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
@@ -3727,6 +5315,108 @@
         <v>57</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="393">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s" s="394">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s" s="395">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s" s="396">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s" s="397">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="398">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s" s="399">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s" s="400">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s" s="401">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s" s="402">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="510">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s" s="511">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s" s="512">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s" s="513">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s" s="514">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="515">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s" s="516">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s" s="517">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s" s="518">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s" s="519">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="520">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s" s="521">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s" s="522">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s" s="523">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s" s="524">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="525">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="526">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s" s="527">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s" s="528">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s" s="529">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3734,7 +5424,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0C4C75-1B6A-41B4-B9B9-D6605133FA01}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD9"/>
@@ -3810,6 +5500,66 @@
         <v>73</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="408">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="409">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="410">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="411">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="412">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="413">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="535">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="536">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="537">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="538">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="539">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="540">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData/AmazonData.xlsx
+++ b/src/test/resources/TestData/AmazonData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="261">
   <si>
     <t>Product Name</t>
   </si>
@@ -573,6 +573,254 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61trmfrh3TL._SX466_.jpg</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Plus (256 GB) - Black</t>
+  </si>
+  <si>
+    <t>Sun Apr 14 18:02:52 IST 2024</t>
+  </si>
+  <si>
+    <t>TMG Grip Nintendo Switch &amp; OLED Legend of Zelda Tears Kingdom Theme</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Rvxeu0zpL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>Sun Apr 14 18:04:10 IST 2024</t>
+  </si>
+  <si>
+    <t>JBL Newly Launched Wave Flex in-Ear Wireless Earbuds TWS with Mic,App for Custom Extra Bass EQ, 32Hrs Battery, Quick Charge, IP54 Water &amp; Dust Proof, Ambient Aware, Talk-Thru,Google FastPair (Mint)</t>
+  </si>
+  <si>
+    <t>2999</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61e+AB+vO1L._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>Sun Apr 14 18:04:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Noise Buds Connect Truly Wireless in Ear Earbuds with 50H Playtime, Quad Mic with ENC, Instacharge(10 min=120 min), 13mm Driver, Hyper Sync, and BT v5.2 (Mint Green)</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51cV1jMpIKL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>Noise Buds Connect Truly Wireless in Ear Earbuds with…</t>
+  </si>
+  <si>
+    <t>1499.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51cV1jMpIKL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>JBL Newly Launched Wave Flex in-Ear Wireless Earbuds TWS…</t>
+  </si>
+  <si>
+    <t>2999.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61e+AB+vO1L._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>TMG Grip Nintendo Switch &amp; OLED Legend of Zelda Tears…
+by TMG</t>
+  </si>
+  <si>
+    <t>1990.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Rvxeu0zpL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>32799.0</t>
+  </si>
+  <si>
+    <t>Sun Apr 14 18:07:12 IST 2024</t>
+  </si>
+  <si>
+    <t>8999</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61fJq6t-vrL._SY450_.jpg</t>
+  </si>
+  <si>
+    <t>RAEGR Arc One 15W Type-C PD | Made in India | Qi-Certified Wireless Charger with Fireproof ABS for iPhone 15/14/13/12 Series, Galaxy S24/S23 Series, Pixel 8/7 Series, OnePlus 9/9 Pro - Black RG10450</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (128GB) - Starlight</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (512GB) - Pink</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 (128 GB) - Purple</t>
+  </si>
+  <si>
+    <t>MOSHKING Back Cover Case Compatible for iPhone 13 with Slide Camera || Heavy Duty Military Grade Protection Mobile Phone Case Built-in 360° Rotate Ring Stand - Black, Polycarbonate</t>
+  </si>
+  <si>
+    <t>Thu Apr 18 18:57:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Nintendo Switch - OLED Model: Mario Red Edition Console</t>
+  </si>
+  <si>
+    <t>30399</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71vwxEAbq7L._SX522_.jpg</t>
+  </si>
+  <si>
+    <t>Thu Apr 18 18:58:48 IST 2024</t>
+  </si>
+  <si>
+    <t>JBL Tune 235NC in Ear Wireless ANC Earbuds (TWS), Massive 40Hrs Playtime with Speed Charge, Customizable Bass with Headphones App, 4 Mics for Perfect Calls, Google Fast Pair, Bluetooth 5.2 (Black)</t>
+  </si>
+  <si>
+    <t>3999</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/517EilTQA6L._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>Thu Apr 18 19:00:47 IST 2024</t>
+  </si>
+  <si>
+    <t>JBL C100SI Wired In Ear Headphones with Mic, JBL Pure Bass Sound, One Button Multi-function Remote, Premium Metallic Finish, Angled Buds for Comfort fit (Black)</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Q8DUDT2eL._SY355_.jpg</t>
+  </si>
+  <si>
+    <t>JBL C100SI Wired In Ear Headphones with Mic, JBL Pure…</t>
+  </si>
+  <si>
+    <t>599.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Q8DUDT2eL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>JBL Tune 235NC in Ear Wireless ANC Earbuds (TWS), Massive 40…</t>
+  </si>
+  <si>
+    <t>3999.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/517EilTQA6L._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>Nintendo Switch - OLED Model: Mario Red Edition Console
+by Nintendo</t>
+  </si>
+  <si>
+    <t>30399.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71vwxEAbq7L._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (512GB) - Starlight</t>
+  </si>
+  <si>
+    <t>Sat Apr 20 18:04:26 IST 2024</t>
+  </si>
+  <si>
+    <t>18499</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61hqXe4AKnL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>Sat Apr 20 18:05:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Apple AirPods Pro (2nd Generation) with MagSafe Case (USB‑C)</t>
+  </si>
+  <si>
+    <t>19499</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61SUj2aKoEL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>Sat Apr 20 18:06:30 IST 2024</t>
+  </si>
+  <si>
+    <t>pTron Bassbuds Duo in-Ear Bluetooth 5.1 Wireless Headphones, Stereo Audio, Touch Control TWS Earbuds with HD Mic, Type-C Fast Charging, IPX4 Water Resistant &amp; Voice Assistance</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Q3PHZCWXL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>pTron Bassbuds Duo in-Ear Bluetooth 5.1 Wireless Headpho…</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Q3PHZCWXL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>Apple AirPods Pro (2nd Generation) with MagSafe Case (…</t>
+  </si>
+  <si>
+    <t>19499.0</t>
+  </si>
+  <si>
+    <t>38998.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61SUj2aKoEL._AC_AA180_.jpg</t>
+  </si>
+  <si>
+    <t>18499.0</t>
+  </si>
+  <si>
+    <t>Mon Apr 22 11:50:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Cute Travel Bag for Nintendo Switch/Lite/OLED/Steam Deck, Cartoon Mario Bag Accessory Bag, Portable Waterproof Backpack Switch Backpack Large Capacity Carrying Crossbody Shoulder Chest Gaming Bag Case</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/810p0l-+SKL._SX385_.jpg</t>
+  </si>
+  <si>
+    <t>Mon Apr 22 11:51:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Apple Wired EarPods with Lightning Connector</t>
+  </si>
+  <si>
+    <t>1799</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/317eB4+yU6L._SX466_.jpg</t>
+  </si>
+  <si>
+    <t>Mon Apr 22 11:52:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Fastrack Fpods(New Launch) FZ100 TWS in-Ear Earbuds with Mega 50 Hrs Playtime|Extra Deep Bass Driver|Quad Mic ENC for Clear Calls|Ultra Low 40ms Latency Gaming Mode|NitroFast Charge-200 Min in 10 Min</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51RmftczFLL._SY355_.jpg</t>
   </si>
 </sst>
 </file>
@@ -726,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="900">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2185,6 +2433,1083 @@
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true">
@@ -2626,7 +3951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD4F907-ECED-4976-B684-EAF36B0CC592}">
-  <dimension ref="B1:B5"/>
+  <dimension ref="B1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -2657,6 +3982,31 @@
     <row r="5">
       <c r="B5" t="s" s="414">
         <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="541">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="648">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="687">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="769">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="846">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +4028,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157DE0E1-FD7A-4F70-8F29-3D1A1B5051FF}">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -4234,6 +5584,774 @@
         <v>8</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="s" s="542">
+        <v>31</v>
+      </c>
+      <c r="B194" t="s" s="543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="544">
+        <v>179</v>
+      </c>
+      <c r="B195" t="s" s="545">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="546">
+        <v>38</v>
+      </c>
+      <c r="B196" t="s" s="547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="548">
+        <v>31</v>
+      </c>
+      <c r="B197" t="s" s="549">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="550">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s" s="551">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="552">
+        <v>35</v>
+      </c>
+      <c r="B199" t="s" s="553">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="554">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s" s="555">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="556">
+        <v>12</v>
+      </c>
+      <c r="B201" t="s" s="557">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="558">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s" s="559">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="560">
+        <v>13</v>
+      </c>
+      <c r="B203" t="s" s="561">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="562">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s" s="563">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="564">
+        <v>16</v>
+      </c>
+      <c r="B205" t="s" s="565">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="566">
+        <v>18</v>
+      </c>
+      <c r="B206" t="s" s="567">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="568">
+        <v>17</v>
+      </c>
+      <c r="B207" t="s" s="569">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="570">
+        <v>19</v>
+      </c>
+      <c r="B208" t="s" s="571">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="572">
+        <v>20</v>
+      </c>
+      <c r="B209" t="s" s="573">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="574">
+        <v>26</v>
+      </c>
+      <c r="B210" t="s" s="575">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="576">
+        <v>32</v>
+      </c>
+      <c r="B211" t="s" s="577">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="578">
+        <v>33</v>
+      </c>
+      <c r="B212" t="s" s="579">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="580">
+        <v>40</v>
+      </c>
+      <c r="B213" t="s" s="581">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="649">
+        <v>31</v>
+      </c>
+      <c r="B214" t="s" s="650">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="651">
+        <v>37</v>
+      </c>
+      <c r="B215" t="s" s="652">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="653">
+        <v>38</v>
+      </c>
+      <c r="B216" t="s" s="654">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="655">
+        <v>31</v>
+      </c>
+      <c r="B217" t="s" s="656">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="657">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s" s="658">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="659">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s" s="660">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="661">
+        <v>12</v>
+      </c>
+      <c r="B220" t="s" s="662">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="663">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s" s="664">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="665">
+        <v>13</v>
+      </c>
+      <c r="B222" t="s" s="666">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="667">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s" s="668">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="669">
+        <v>17</v>
+      </c>
+      <c r="B224" t="s" s="670">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="671">
+        <v>18</v>
+      </c>
+      <c r="B225" t="s" s="672">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="673">
+        <v>19</v>
+      </c>
+      <c r="B226" t="s" s="674">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="675">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s" s="676">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="677">
+        <v>26</v>
+      </c>
+      <c r="B228" t="s" s="678">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="679">
+        <v>21</v>
+      </c>
+      <c r="B229" t="s" s="680">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="681">
+        <v>33</v>
+      </c>
+      <c r="B230" t="s" s="682">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="683">
+        <v>32</v>
+      </c>
+      <c r="B231" t="s" s="684">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="685">
+        <v>205</v>
+      </c>
+      <c r="B232" t="s" s="686">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="688">
+        <v>38</v>
+      </c>
+      <c r="B233" t="s" s="689">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="690">
+        <v>26</v>
+      </c>
+      <c r="B234" t="s" s="691">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="692">
+        <v>38</v>
+      </c>
+      <c r="B235" t="s" s="693">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="694">
+        <v>31</v>
+      </c>
+      <c r="B236" t="s" s="695">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="696">
+        <v>206</v>
+      </c>
+      <c r="B237" t="s" s="697">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="698">
+        <v>9</v>
+      </c>
+      <c r="B238" t="s" s="699">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="700">
+        <v>12</v>
+      </c>
+      <c r="B239" t="s" s="701">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="702">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s" s="703">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="704">
+        <v>13</v>
+      </c>
+      <c r="B241" t="s" s="705">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="706">
+        <v>14</v>
+      </c>
+      <c r="B242" t="s" s="707">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="708">
+        <v>16</v>
+      </c>
+      <c r="B243" t="s" s="709">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="710">
+        <v>18</v>
+      </c>
+      <c r="B244" t="s" s="711">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="712">
+        <v>17</v>
+      </c>
+      <c r="B245" t="s" s="713">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="714">
+        <v>207</v>
+      </c>
+      <c r="B246" t="s" s="715">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="716">
+        <v>19</v>
+      </c>
+      <c r="B247" t="s" s="717">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="718">
+        <v>23</v>
+      </c>
+      <c r="B248" t="s" s="719">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="720">
+        <v>26</v>
+      </c>
+      <c r="B249" t="s" s="721">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="722">
+        <v>208</v>
+      </c>
+      <c r="B250" t="s" s="723">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="724">
+        <v>209</v>
+      </c>
+      <c r="B251" t="s" s="725">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="770">
+        <v>31</v>
+      </c>
+      <c r="B252" t="s" s="771">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="772">
+        <v>26</v>
+      </c>
+      <c r="B253" t="s" s="773">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="774">
+        <v>38</v>
+      </c>
+      <c r="B254" t="s" s="775">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="776">
+        <v>31</v>
+      </c>
+      <c r="B255" t="s" s="777">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="778">
+        <v>206</v>
+      </c>
+      <c r="B256" t="s" s="779">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="780">
+        <v>9</v>
+      </c>
+      <c r="B257" t="s" s="781">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="782">
+        <v>5</v>
+      </c>
+      <c r="B258" t="s" s="783">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="784">
+        <v>12</v>
+      </c>
+      <c r="B259" t="s" s="785">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="786">
+        <v>10</v>
+      </c>
+      <c r="B260" t="s" s="787">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="788">
+        <v>13</v>
+      </c>
+      <c r="B261" t="s" s="789">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="790">
+        <v>14</v>
+      </c>
+      <c r="B262" t="s" s="791">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="792">
+        <v>16</v>
+      </c>
+      <c r="B263" t="s" s="793">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="794">
+        <v>207</v>
+      </c>
+      <c r="B264" t="s" s="795">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="796">
+        <v>17</v>
+      </c>
+      <c r="B265" t="s" s="797">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="798">
+        <v>18</v>
+      </c>
+      <c r="B266" t="s" s="799">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="800">
+        <v>231</v>
+      </c>
+      <c r="B267" t="s" s="801">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="802">
+        <v>19</v>
+      </c>
+      <c r="B268" t="s" s="803">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="804">
+        <v>26</v>
+      </c>
+      <c r="B269" t="s" s="805">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="806">
+        <v>25</v>
+      </c>
+      <c r="B270" t="s" s="807">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="847">
+        <v>206</v>
+      </c>
+      <c r="B271" t="s" s="848">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="849">
+        <v>7</v>
+      </c>
+      <c r="B272" t="s" s="850">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="851">
+        <v>38</v>
+      </c>
+      <c r="B273" t="s" s="852">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="853">
+        <v>206</v>
+      </c>
+      <c r="B274" t="s" s="854">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="855">
+        <v>9</v>
+      </c>
+      <c r="B275" t="s" s="856">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="857">
+        <v>31</v>
+      </c>
+      <c r="B276" t="s" s="858">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="859">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s" s="860">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="861">
+        <v>12</v>
+      </c>
+      <c r="B278" t="s" s="862">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="863">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s" s="864">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="865">
+        <v>13</v>
+      </c>
+      <c r="B280" t="s" s="866">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="867">
+        <v>16</v>
+      </c>
+      <c r="B281" t="s" s="868">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="869">
+        <v>14</v>
+      </c>
+      <c r="B282" t="s" s="870">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="871">
+        <v>15</v>
+      </c>
+      <c r="B283" t="s" s="872">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="873">
+        <v>18</v>
+      </c>
+      <c r="B284" t="s" s="874">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="875">
+        <v>19</v>
+      </c>
+      <c r="B285" t="s" s="876">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="877">
+        <v>17</v>
+      </c>
+      <c r="B286" t="s" s="878">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="879">
+        <v>207</v>
+      </c>
+      <c r="B287" t="s" s="880">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="881">
+        <v>26</v>
+      </c>
+      <c r="B288" t="s" s="882">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="883">
+        <v>209</v>
+      </c>
+      <c r="B289" t="s" s="884">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4241,7 +6359,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587F6E7-417F-4942-A622-4F6113405A96}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD47"/>
@@ -4613,6 +6731,227 @@
         <v>178</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="582">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s" s="583">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s" s="584">
+        <v>182</v>
+      </c>
+      <c r="D22" t="s" s="585">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s" s="586">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="587">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s" s="588">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s" s="589">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s" s="590">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s" s="591">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="592">
+        <v>188</v>
+      </c>
+      <c r="B24" t="s" s="593">
+        <v>189</v>
+      </c>
+      <c r="C24" t="s" s="594">
+        <v>190</v>
+      </c>
+      <c r="D24" t="s" s="595">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s" s="596">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="638">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s" s="639">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s" s="640">
+        <v>203</v>
+      </c>
+      <c r="D25" t="s" s="641">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s" s="642">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="726">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s" s="727">
+        <v>211</v>
+      </c>
+      <c r="C26" t="s" s="728">
+        <v>212</v>
+      </c>
+      <c r="D26" t="s" s="729">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s" s="730">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="731">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="732">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s" s="733">
+        <v>216</v>
+      </c>
+      <c r="D27" t="s" s="734">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s" s="735">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="736">
+        <v>218</v>
+      </c>
+      <c r="B28" t="s" s="737">
+        <v>219</v>
+      </c>
+      <c r="C28" t="s" s="738">
+        <v>220</v>
+      </c>
+      <c r="D28" t="s" s="739">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s" s="740">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="808">
+        <v>232</v>
+      </c>
+      <c r="B29" t="s" s="809">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s" s="810">
+        <v>233</v>
+      </c>
+      <c r="D29" t="s" s="811">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s" s="812">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="813">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s" s="814">
+        <v>236</v>
+      </c>
+      <c r="C30" t="s" s="815">
+        <v>237</v>
+      </c>
+      <c r="D30" t="s" s="816">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s" s="817">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="818">
+        <v>239</v>
+      </c>
+      <c r="B31" t="s" s="819">
+        <v>240</v>
+      </c>
+      <c r="C31" t="s" s="820">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s" s="821">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s" s="822">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="885">
+        <v>249</v>
+      </c>
+      <c r="B32" t="s" s="886">
+        <v>250</v>
+      </c>
+      <c r="C32" t="s" s="887">
+        <v>251</v>
+      </c>
+      <c r="D32" t="s" s="888">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s" s="889">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="890">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s" s="891">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s" s="892">
+        <v>255</v>
+      </c>
+      <c r="D33" t="s" s="893">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s" s="894">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="895">
+        <v>257</v>
+      </c>
+      <c r="B34" t="s" s="896">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s" s="897">
+        <v>259</v>
+      </c>
+      <c r="D34" t="s" s="898">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s" s="899">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4620,7 +6959,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
@@ -5156,6 +7495,246 @@
         <v>120</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s" s="597">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s" s="598">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s" s="599">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s" s="600">
+        <v>193</v>
+      </c>
+      <c r="E27" t="s" s="601">
+        <v>194</v>
+      </c>
+      <c r="F27" t="s" s="602">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="603">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s" s="604">
+        <v>196</v>
+      </c>
+      <c r="C28" t="s" s="605">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s" s="606">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s" s="607">
+        <v>197</v>
+      </c>
+      <c r="F28" t="s" s="608">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="609">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s" s="610">
+        <v>199</v>
+      </c>
+      <c r="C29" t="s" s="611">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s" s="612">
+        <v>199</v>
+      </c>
+      <c r="E29" t="s" s="613">
+        <v>200</v>
+      </c>
+      <c r="F29" t="s" s="614">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="615">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s" s="616">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s" s="617">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s" s="618">
+        <v>201</v>
+      </c>
+      <c r="E30" t="s" s="619">
+        <v>145</v>
+      </c>
+      <c r="F30" t="s" s="620">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="621">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s" s="622">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s" s="623">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s" s="624">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s" s="625">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s" s="626">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="627">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s" s="628">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s" s="629">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s" s="630">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s" s="631">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s" s="632">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="741">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s" s="742">
+        <v>223</v>
+      </c>
+      <c r="C33" t="s" s="743">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s" s="744">
+        <v>223</v>
+      </c>
+      <c r="E33" t="s" s="745">
+        <v>224</v>
+      </c>
+      <c r="F33" t="s" s="746">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="747">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s" s="748">
+        <v>226</v>
+      </c>
+      <c r="C34" t="s" s="749">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s" s="750">
+        <v>226</v>
+      </c>
+      <c r="E34" t="s" s="751">
+        <v>227</v>
+      </c>
+      <c r="F34" t="s" s="752">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="753">
+        <v>228</v>
+      </c>
+      <c r="B35" t="s" s="754">
+        <v>229</v>
+      </c>
+      <c r="C35" t="s" s="755">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s" s="756">
+        <v>229</v>
+      </c>
+      <c r="E35" t="s" s="757">
+        <v>230</v>
+      </c>
+      <c r="F35" t="s" s="758">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="823">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s" s="824">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s" s="825">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s" s="826">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s" s="827">
+        <v>243</v>
+      </c>
+      <c r="F36" t="s" s="828">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="829">
+        <v>244</v>
+      </c>
+      <c r="B37" t="s" s="830">
+        <v>245</v>
+      </c>
+      <c r="C37" t="s" s="831">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s" s="832">
+        <v>246</v>
+      </c>
+      <c r="E37" t="s" s="833">
+        <v>247</v>
+      </c>
+      <c r="F37" t="s" s="834">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="835">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s" s="836">
+        <v>248</v>
+      </c>
+      <c r="C38" t="s" s="837">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s" s="838">
+        <v>248</v>
+      </c>
+      <c r="E38" t="s" s="839">
+        <v>118</v>
+      </c>
+      <c r="F38" t="s" s="840">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5163,7 +7742,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9709AFC8-5DA7-42E1-8CC9-7FFC2FDEE40D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
@@ -5417,6 +7996,74 @@
         <v>57</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="633">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s" s="634">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s" s="635">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s" s="636">
+        <v>194</v>
+      </c>
+      <c r="E15" t="s" s="637">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="759">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s" s="760">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s" s="761">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s" s="762">
+        <v>224</v>
+      </c>
+      <c r="E16" t="s" s="763">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="764">
+        <v>225</v>
+      </c>
+      <c r="B17" t="s" s="765">
+        <v>226</v>
+      </c>
+      <c r="C17" t="s" s="766">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s" s="767">
+        <v>227</v>
+      </c>
+      <c r="E17" t="s" s="768">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="841">
+        <v>242</v>
+      </c>
+      <c r="B18" t="s" s="842">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s" s="843">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s" s="844">
+        <v>243</v>
+      </c>
+      <c r="E18" t="s" s="845">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5424,7 +8071,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0C4C75-1B6A-41B4-B9B9-D6605133FA01}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD9"/>
@@ -5560,6 +8207,31 @@
         <v>73</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s" s="643">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="644">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="645">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="646">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="647">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData/AmazonData.xlsx
+++ b/src/test/resources/TestData/AmazonData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESoft_Solutions\AutomationPractice\Amazon\src\test\resources\TestData\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="296">
   <si>
     <t>Product Name</t>
   </si>
@@ -818,12 +818,121 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/51RmftczFLL._SY355_.jpg</t>
+  </si>
+  <si>
+    <t>Hello, Gopi</t>
+  </si>
+  <si>
+    <t>Fri May 31 11:00:25 IST 2024</t>
+  </si>
+  <si>
+    <t>HAMMER Aeromax ANC (32dB) TWS, BTv5.4, Low Latency, in-Ear Bluetooth Earbuds with Clear ENC Calling, Quad Mics, Type-C,Touch Controls, Deep Bass, 30 Hrs Playtime (White)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/612MBmwjCUL._SX679_.jpg</t>
+  </si>
+  <si>
+    <t>KAPAVER® Rugged Hybrid Armor TPU Bumper with Hard PC Clear Case Cover for iPhone 13 (6.1-inch) (Black)</t>
+  </si>
+  <si>
+    <t>Fri May 31 11:01:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Nintendo Switch OLED with Joy-Con - Mario Red Edition</t>
+  </si>
+  <si>
+    <t>28600</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61dcu40kxVL._SX342_.jpg</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (512GB) - Midnight</t>
+  </si>
+  <si>
+    <t>Fri May 31 11:01:52 IST 2024</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61eqJoa4MBL._SY450_.jpg</t>
+  </si>
+  <si>
+    <t>Dell 15 Thin &amp; Light Laptop, Intel Core i5-1235U Processor/16GB DDR4/512GB SSD/Intel UHD Graphics/15.6" (39.62cm) FHD Display/Win 11 + MSO'21/15 Month McAfee/Carbon Black/Spill-Resistant KB/1.69kg</t>
+  </si>
+  <si>
+    <t>Dell 14 Thin &amp; Light Laptop, 12th Gen Intel Core i3-1215U Processor/8GB/512GB SSD/Intel UHD Graphics/14.0"(35.56cm) FHD/Windows 11 + MSO'21/15 Month McAfee/Spill-Resistant Keyboard/Grey/1.48kg</t>
+  </si>
+  <si>
+    <t>Apple 2024 MacBook Air 13″ Laptop with M3 chip: 34.46 cm (13.6″) Liquid Retina Display, 8GB Unified Memory, 256GB SSD Storage, Backlit Keyboard, 1080p FaceTime HD Camera, Touch ID- Midnight</t>
+  </si>
+  <si>
+    <t>Apple 2024 MacBook Air 13″ Laptop with M3 chip: 34.46 cm (13.6″) Liquid Retina Display, 8GB Unified Memory, 256GB SSD Storage, Backlit Keyboard, 1080p FaceTime HD Camera, Touch ID- Space Grey</t>
+  </si>
+  <si>
+    <t>Apple 2024 MacBook Air 13″ Laptop with M3 chip: 34.46 cm (13.6″) Liquid Retina Display, 8GB Unified Memory, 256GB SSD Storage, Backlit Keyboard, 1080p FaceTime HD Camera, Touch ID- Starlight</t>
+  </si>
+  <si>
+    <t>Apple 2024 MacBook Air 13″ Laptop with M3 chip: 34.46 cm (13.6″) Liquid Retina Display, 8GB Unified Memory, 512GB SSD Storage, Backlit Keyboard, 1080p FaceTime HD Camera, Touch ID- Midnight</t>
+  </si>
+  <si>
+    <t>Apple 2024 MacBook Air 13″ Laptop with M3 chip: 34.46 cm (13.6″) Liquid Retina Display, 8GB Unified Memory, 256GB SSD Storage, Backlit Keyboard, 1080p FaceTime HD Camera, Touch ID- Silver</t>
+  </si>
+  <si>
+    <t>Apple 2024 MacBook Air 13″ Laptop with M3 chip: 34.46 cm (13.6″) Liquid Retina Display, 8GB Unified Memory, 512GB SSD Storage, Backlit Keyboard, 1080p FaceTime HD Camera, Touch ID- Silver</t>
+  </si>
+  <si>
+    <t>Infinix ZEROBOOK 13 Intel Intel Core i9 13th Gen 13900H - (32 GB/1 TB SSD/Windows 11 Home) ZL513 Thin and Light Laptop (15.6 inch, Grey with Meteorite Phase Design, 1.80 Kg, with MS Office)</t>
+  </si>
+  <si>
+    <t>Apple 2022 MacBook Air Laptop with M2 chip: 34.46 cm (13.6-inch) Liquid Retina Display, 8GB RAM, 512GB SSD Storage, Backlit Keyboard, 1080p FaceTime HD Camera. Works with iPhone/iPad; Starlight</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 AMD Ryzen 5 7530U 14" (35.56 cm) WUXGA IPS 300 Nits Thin and Light Laptop (8GB RAM/512GB SSD/Windows 11 Home/AMD Radeon Graphics/Backlit Keyboard/FPR/Black/1.41 kg), 21JRS00T00</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 1 AMD Ryzen 5 5500U 15.6" (39.62cm) FHD Thin &amp; Light Laptop (8GB/512GB SSD/Windows 11/Office 2021/HD Camera/1 Year ADP Free/Grey/1.6Kg), 82R400BGIN</t>
+  </si>
+  <si>
+    <t>HP Pavilion Aero AMD Ryzen 5 7535U 13.3 inch(33.8cm) WUXGA IPS, Micro-Edge Laptop (16GB RAM/512GB SSD/AMD Radeon Graphics/Win 11/MSO/Backlit Keyboard/B&amp;O/FPR/Alexa/Warm Gold/970 Grams) 13-be2055AU</t>
+  </si>
+  <si>
+    <t>HP Laptop 14, 13th Gen Intel Core i3-1315U, 14-inch (35.6 cm), FHD, 8GB DDR4, 512GB SSD, Intel UHD Graphics, FHD Camera w/Privacy Shutter, Thin &amp; Light (Win 11, MSO 2021, Blue, 1.4 kg), gr0000TU</t>
+  </si>
+  <si>
+    <t>Apple 2022 MacBook Air Laptop with M2 chip: 34.46 cm (13.6-inch) Liquid Retina Display, 8GB RAM, 256GB SSD Storage, Backlit Keyboard, 1080p FaceTime HD Camera. Works with iPhone/iPad; Silver</t>
+  </si>
+  <si>
+    <t>HP Envy x360 12th Gen Intel Core i7-13.3 inch(33.8 cm) OLED Multi-Touch Gorilla Glass 2-in-1 Laptop(16GB RAM/1TB SSD/400 nits/Win 11/Intel Iris Xe Graphics/Alexa/B&amp;O/Zenvo Pen/MSO/1.32Kg) 13 bf0063TU</t>
+  </si>
+  <si>
+    <t>Dell 14 Thin &amp; Light Laptop, 12th Gen Intel Core i5-1235U Processor, 16GB, 512GB, 14.0" (35.56cm) FHD Display, Windows 11 + MSO'21, Spill-Resistant Keyboard, 15 Month Mcafee, Black, 1.48kg</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3530 Thin &amp; Light Laptop, 13th Gen Intel Core i3-1305U/8GB/512GB SSD/15.6" (39.62cm) 120Hz Refresh Rate on a FHD IPS Display Comfortview/Win 11+MSO'21+McAfee 15 Month/Carbon Black/1.62kg</t>
+  </si>
+  <si>
+    <t>MSI Prestige 13 Evo, Intel 12th Gen. i5-1240P, 33CM FHD+ 60Hz Laptop (8GB/512GB NVMe SSD/Windows 11 Home/Intel Iris Xe Graphics/Pure White/0.99Kg), B12M-085IN</t>
+  </si>
+  <si>
+    <t>Dell 14 Thin &amp; Light Laptop, Intel Core i5-1235U Processor, 8GB + 512GB SSD, 14.0" (35.62cm) FHD AG 250 nits Display, Win 11 + MSO'21 &amp; 15 Month McAfee, Grey, Spill-Resistant Keyboard, 1.48kg</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7420 2in1 Laptop, Intel Core i7-1255U Processor/16GB/512GB/14.0" (35.56cm) FHD+ WVA Touch 250 nits, Active Pen/Win 11 + MSO'21, 15 Month McAfee/Backlit KB + FPR/Platinum Silver, 1.57kg</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 (128 GB) - Starlight</t>
+  </si>
+  <si>
+    <t>Original Smartphone Compatible with Apple iPhone 5s Silver (16GB Storage with 1-Year Warranty)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,7 +950,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,8 +973,23 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -948,11 +1072,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="926">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -972,6 +1114,2760 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,14 +4149,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD4F907-ECED-4976-B684-EAF36B0CC592}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s" s="8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s" s="9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="10">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="66">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="113">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="114">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="155">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="196">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="237">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="278">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="317">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="358">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="399">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="438">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="477">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="518">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="559">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="600">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="641">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s" s="682">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="723">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="764">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="805">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="846">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="887">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1279,7 +4301,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157DE0E1-FD7A-4F70-8F29-3D1A1B5051FF}">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B728"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -1287,8 +4309,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -3600,6 +6622,3518 @@
         <v>208</v>
       </c>
       <c r="B289" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="16">
+        <v>205</v>
+      </c>
+      <c r="B290" t="s" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="B291" t="s" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="20">
+        <v>205</v>
+      </c>
+      <c r="B292" t="s" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="22">
+        <v>31</v>
+      </c>
+      <c r="B293" t="s" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="24">
+        <v>37</v>
+      </c>
+      <c r="B294" t="s" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="26">
+        <v>264</v>
+      </c>
+      <c r="B295" t="s" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="B296" t="s" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="30">
+        <v>5</v>
+      </c>
+      <c r="B297" t="s" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="32">
+        <v>12</v>
+      </c>
+      <c r="B298" t="s" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="34">
+        <v>10</v>
+      </c>
+      <c r="B299" t="s" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="36">
+        <v>15</v>
+      </c>
+      <c r="B300" t="s" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="38">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="45">
+        <v>13</v>
+      </c>
+      <c r="B302" t="s" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="47">
+        <v>16</v>
+      </c>
+      <c r="B303" t="s" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="49">
+        <v>26</v>
+      </c>
+      <c r="B304" t="s" s="50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="51">
+        <v>206</v>
+      </c>
+      <c r="B305" t="s" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="53">
+        <v>269</v>
+      </c>
+      <c r="B306" t="s" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="55">
+        <v>17</v>
+      </c>
+      <c r="B307" t="s" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="57">
+        <v>230</v>
+      </c>
+      <c r="B308" t="s" s="58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="59">
+        <v>39</v>
+      </c>
+      <c r="B309" t="s" s="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="67">
+        <v>273</v>
+      </c>
+      <c r="B310" t="s" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="69">
+        <v>274</v>
+      </c>
+      <c r="B311" t="s" s="70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="71">
+        <v>275</v>
+      </c>
+      <c r="B312" t="s" s="72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="73">
+        <v>276</v>
+      </c>
+      <c r="B313" t="s" s="74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="75">
+        <v>277</v>
+      </c>
+      <c r="B314" t="s" s="76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="77">
+        <v>264</v>
+      </c>
+      <c r="B315" t="s" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="79">
+        <v>278</v>
+      </c>
+      <c r="B316" t="s" s="80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="81">
+        <v>279</v>
+      </c>
+      <c r="B317" t="s" s="82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="83">
+        <v>280</v>
+      </c>
+      <c r="B318" t="s" s="84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="85">
+        <v>281</v>
+      </c>
+      <c r="B319" t="s" s="86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="87">
+        <v>282</v>
+      </c>
+      <c r="B320" t="s" s="88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="89">
+        <v>283</v>
+      </c>
+      <c r="B321" t="s" s="90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="91">
+        <v>284</v>
+      </c>
+      <c r="B322" t="s" s="92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="93">
+        <v>285</v>
+      </c>
+      <c r="B323" t="s" s="94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="95">
+        <v>286</v>
+      </c>
+      <c r="B324" t="s" s="96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="97">
+        <v>287</v>
+      </c>
+      <c r="B325" t="s" s="98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="99">
+        <v>288</v>
+      </c>
+      <c r="B326" t="s" s="100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="101">
+        <v>289</v>
+      </c>
+      <c r="B327" t="s" s="102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="103">
+        <v>290</v>
+      </c>
+      <c r="B328" t="s" s="104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="105">
+        <v>291</v>
+      </c>
+      <c r="B329" t="s" s="106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="107">
+        <v>274</v>
+      </c>
+      <c r="B330" t="s" s="108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="109">
+        <v>292</v>
+      </c>
+      <c r="B331" t="s" s="110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="111">
+        <v>293</v>
+      </c>
+      <c r="B332" t="s" s="112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="115">
+        <v>205</v>
+      </c>
+      <c r="B333" t="s" s="116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="117">
+        <v>36</v>
+      </c>
+      <c r="B334" t="s" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="119">
+        <v>205</v>
+      </c>
+      <c r="B335" t="s" s="120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="121">
+        <v>31</v>
+      </c>
+      <c r="B336" t="s" s="122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="123">
+        <v>37</v>
+      </c>
+      <c r="B337" t="s" s="124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="125">
+        <v>264</v>
+      </c>
+      <c r="B338" t="s" s="126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="127">
+        <v>5</v>
+      </c>
+      <c r="B339" t="s" s="128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="129">
+        <v>12</v>
+      </c>
+      <c r="B340" t="s" s="130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="131">
+        <v>10</v>
+      </c>
+      <c r="B341" t="s" s="132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="133">
+        <v>15</v>
+      </c>
+      <c r="B342" t="s" s="134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="135">
+        <v>14</v>
+      </c>
+      <c r="B343" t="s" s="136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="137">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s" s="138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="139">
+        <v>13</v>
+      </c>
+      <c r="B345" t="s" s="140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="141">
+        <v>16</v>
+      </c>
+      <c r="B346" t="s" s="142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="143">
+        <v>26</v>
+      </c>
+      <c r="B347" t="s" s="144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="145">
+        <v>269</v>
+      </c>
+      <c r="B348" t="s" s="146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="147">
+        <v>294</v>
+      </c>
+      <c r="B349" t="s" s="148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="149">
+        <v>206</v>
+      </c>
+      <c r="B350" t="s" s="150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="151">
+        <v>295</v>
+      </c>
+      <c r="B351" t="s" s="152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="153">
+        <v>39</v>
+      </c>
+      <c r="B352" t="s" s="154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="156">
+        <v>205</v>
+      </c>
+      <c r="B353" t="s" s="157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="158">
+        <v>36</v>
+      </c>
+      <c r="B354" t="s" s="159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="160">
+        <v>205</v>
+      </c>
+      <c r="B355" t="s" s="161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="162">
+        <v>31</v>
+      </c>
+      <c r="B356" t="s" s="163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="164">
+        <v>37</v>
+      </c>
+      <c r="B357" t="s" s="165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="166">
+        <v>264</v>
+      </c>
+      <c r="B358" t="s" s="167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="168">
+        <v>5</v>
+      </c>
+      <c r="B359" t="s" s="169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="170">
+        <v>12</v>
+      </c>
+      <c r="B360" t="s" s="171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="172">
+        <v>10</v>
+      </c>
+      <c r="B361" t="s" s="173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="174">
+        <v>15</v>
+      </c>
+      <c r="B362" t="s" s="175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="176">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s" s="177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="178">
+        <v>14</v>
+      </c>
+      <c r="B364" t="s" s="179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="B365" t="s" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="182">
+        <v>16</v>
+      </c>
+      <c r="B366" t="s" s="183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="184">
+        <v>26</v>
+      </c>
+      <c r="B367" t="s" s="185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="186">
+        <v>269</v>
+      </c>
+      <c r="B368" t="s" s="187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="188">
+        <v>295</v>
+      </c>
+      <c r="B369" t="s" s="189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="190">
+        <v>36</v>
+      </c>
+      <c r="B370" t="s" s="191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="192">
+        <v>206</v>
+      </c>
+      <c r="B371" t="s" s="193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="194">
+        <v>39</v>
+      </c>
+      <c r="B372" t="s" s="195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="197">
+        <v>205</v>
+      </c>
+      <c r="B373" t="s" s="198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="199">
+        <v>36</v>
+      </c>
+      <c r="B374" t="s" s="200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="201">
+        <v>205</v>
+      </c>
+      <c r="B375" t="s" s="202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="203">
+        <v>31</v>
+      </c>
+      <c r="B376" t="s" s="204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="205">
+        <v>37</v>
+      </c>
+      <c r="B377" t="s" s="206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="207">
+        <v>264</v>
+      </c>
+      <c r="B378" t="s" s="208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="209">
+        <v>5</v>
+      </c>
+      <c r="B379" t="s" s="210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="211">
+        <v>12</v>
+      </c>
+      <c r="B380" t="s" s="212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="213">
+        <v>10</v>
+      </c>
+      <c r="B381" t="s" s="214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="215">
+        <v>15</v>
+      </c>
+      <c r="B382" t="s" s="216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="217">
+        <v>14</v>
+      </c>
+      <c r="B383" t="s" s="218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="219">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s" s="220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="221">
+        <v>13</v>
+      </c>
+      <c r="B385" t="s" s="222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="223">
+        <v>16</v>
+      </c>
+      <c r="B386" t="s" s="224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="225">
+        <v>26</v>
+      </c>
+      <c r="B387" t="s" s="226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="227">
+        <v>36</v>
+      </c>
+      <c r="B388" t="s" s="228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="229">
+        <v>206</v>
+      </c>
+      <c r="B389" t="s" s="230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="231">
+        <v>17</v>
+      </c>
+      <c r="B390" t="s" s="232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="233">
+        <v>230</v>
+      </c>
+      <c r="B391" t="s" s="234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="235">
+        <v>39</v>
+      </c>
+      <c r="B392" t="s" s="236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="238">
+        <v>205</v>
+      </c>
+      <c r="B393" t="s" s="239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="240">
+        <v>36</v>
+      </c>
+      <c r="B394" t="s" s="241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="242">
+        <v>205</v>
+      </c>
+      <c r="B395" t="s" s="243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="244">
+        <v>31</v>
+      </c>
+      <c r="B396" t="s" s="245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="246">
+        <v>37</v>
+      </c>
+      <c r="B397" t="s" s="247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="248">
+        <v>264</v>
+      </c>
+      <c r="B398" t="s" s="249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="250">
+        <v>5</v>
+      </c>
+      <c r="B399" t="s" s="251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="252">
+        <v>12</v>
+      </c>
+      <c r="B400" t="s" s="253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="254">
+        <v>10</v>
+      </c>
+      <c r="B401" t="s" s="255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="256">
+        <v>15</v>
+      </c>
+      <c r="B402" t="s" s="257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="258">
+        <v>9</v>
+      </c>
+      <c r="B403" t="s" s="259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="260">
+        <v>14</v>
+      </c>
+      <c r="B404" t="s" s="261">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="262">
+        <v>13</v>
+      </c>
+      <c r="B405" t="s" s="263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="264">
+        <v>16</v>
+      </c>
+      <c r="B406" t="s" s="265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="266">
+        <v>26</v>
+      </c>
+      <c r="B407" t="s" s="267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="268">
+        <v>269</v>
+      </c>
+      <c r="B408" t="s" s="269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="270">
+        <v>295</v>
+      </c>
+      <c r="B409" t="s" s="271">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="272">
+        <v>36</v>
+      </c>
+      <c r="B410" t="s" s="273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="274">
+        <v>206</v>
+      </c>
+      <c r="B411" t="s" s="275">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="276">
+        <v>264</v>
+      </c>
+      <c r="B412" t="s" s="277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="279">
+        <v>205</v>
+      </c>
+      <c r="B413" t="s" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="281">
+        <v>205</v>
+      </c>
+      <c r="B414" t="s" s="282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="283">
+        <v>31</v>
+      </c>
+      <c r="B415" t="s" s="284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="285">
+        <v>37</v>
+      </c>
+      <c r="B416" t="s" s="286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="287">
+        <v>264</v>
+      </c>
+      <c r="B417" t="s" s="288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="289">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s" s="290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="291">
+        <v>9</v>
+      </c>
+      <c r="B419" t="s" s="292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="293">
+        <v>12</v>
+      </c>
+      <c r="B420" t="s" s="294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="295">
+        <v>10</v>
+      </c>
+      <c r="B421" t="s" s="296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="297">
+        <v>15</v>
+      </c>
+      <c r="B422" t="s" s="298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="299">
+        <v>14</v>
+      </c>
+      <c r="B423" t="s" s="300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="301">
+        <v>13</v>
+      </c>
+      <c r="B424" t="s" s="302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="303">
+        <v>16</v>
+      </c>
+      <c r="B425" t="s" s="304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="305">
+        <v>26</v>
+      </c>
+      <c r="B426" t="s" s="306">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="307">
+        <v>36</v>
+      </c>
+      <c r="B427" t="s" s="308">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="309">
+        <v>206</v>
+      </c>
+      <c r="B428" t="s" s="310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="311">
+        <v>17</v>
+      </c>
+      <c r="B429" t="s" s="312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="313">
+        <v>230</v>
+      </c>
+      <c r="B430" t="s" s="314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="315">
+        <v>39</v>
+      </c>
+      <c r="B431" t="s" s="316">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="318">
+        <v>205</v>
+      </c>
+      <c r="B432" t="s" s="319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="320">
+        <v>36</v>
+      </c>
+      <c r="B433" t="s" s="321">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="322">
+        <v>205</v>
+      </c>
+      <c r="B434" t="s" s="323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="324">
+        <v>31</v>
+      </c>
+      <c r="B435" t="s" s="325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="326">
+        <v>37</v>
+      </c>
+      <c r="B436" t="s" s="327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="328">
+        <v>264</v>
+      </c>
+      <c r="B437" t="s" s="329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="330">
+        <v>5</v>
+      </c>
+      <c r="B438" t="s" s="331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="332">
+        <v>9</v>
+      </c>
+      <c r="B439" t="s" s="333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="334">
+        <v>12</v>
+      </c>
+      <c r="B440" t="s" s="335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="336">
+        <v>10</v>
+      </c>
+      <c r="B441" t="s" s="337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="338">
+        <v>15</v>
+      </c>
+      <c r="B442" t="s" s="339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="340">
+        <v>14</v>
+      </c>
+      <c r="B443" t="s" s="341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="342">
+        <v>13</v>
+      </c>
+      <c r="B444" t="s" s="343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="344">
+        <v>16</v>
+      </c>
+      <c r="B445" t="s" s="345">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="346">
+        <v>26</v>
+      </c>
+      <c r="B446" t="s" s="347">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="348">
+        <v>269</v>
+      </c>
+      <c r="B447" t="s" s="349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="350">
+        <v>206</v>
+      </c>
+      <c r="B448" t="s" s="351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="352">
+        <v>36</v>
+      </c>
+      <c r="B449" t="s" s="353">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="354">
+        <v>295</v>
+      </c>
+      <c r="B450" t="s" s="355">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="356">
+        <v>39</v>
+      </c>
+      <c r="B451" t="s" s="357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="359">
+        <v>205</v>
+      </c>
+      <c r="B452" t="s" s="360">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="361">
+        <v>36</v>
+      </c>
+      <c r="B453" t="s" s="362">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="363">
+        <v>205</v>
+      </c>
+      <c r="B454" t="s" s="364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="365">
+        <v>31</v>
+      </c>
+      <c r="B455" t="s" s="366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="367">
+        <v>37</v>
+      </c>
+      <c r="B456" t="s" s="368">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="369">
+        <v>264</v>
+      </c>
+      <c r="B457" t="s" s="370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="371">
+        <v>5</v>
+      </c>
+      <c r="B458" t="s" s="372">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="373">
+        <v>9</v>
+      </c>
+      <c r="B459" t="s" s="374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="375">
+        <v>12</v>
+      </c>
+      <c r="B460" t="s" s="376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="377">
+        <v>10</v>
+      </c>
+      <c r="B461" t="s" s="378">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="379">
+        <v>15</v>
+      </c>
+      <c r="B462" t="s" s="380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="381">
+        <v>14</v>
+      </c>
+      <c r="B463" t="s" s="382">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="383">
+        <v>13</v>
+      </c>
+      <c r="B464" t="s" s="384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="385">
+        <v>16</v>
+      </c>
+      <c r="B465" t="s" s="386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="387">
+        <v>26</v>
+      </c>
+      <c r="B466" t="s" s="388">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="389">
+        <v>206</v>
+      </c>
+      <c r="B467" t="s" s="390">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="391">
+        <v>36</v>
+      </c>
+      <c r="B468" t="s" s="392">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="393">
+        <v>17</v>
+      </c>
+      <c r="B469" t="s" s="394">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="395">
+        <v>230</v>
+      </c>
+      <c r="B470" t="s" s="396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="397">
+        <v>39</v>
+      </c>
+      <c r="B471" t="s" s="398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="400">
+        <v>205</v>
+      </c>
+      <c r="B472" t="s" s="401">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="402">
+        <v>205</v>
+      </c>
+      <c r="B473" t="s" s="403">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="404">
+        <v>31</v>
+      </c>
+      <c r="B474" t="s" s="405">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="406">
+        <v>37</v>
+      </c>
+      <c r="B475" t="s" s="407">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="408">
+        <v>264</v>
+      </c>
+      <c r="B476" t="s" s="409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="410">
+        <v>5</v>
+      </c>
+      <c r="B477" t="s" s="411">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="412">
+        <v>9</v>
+      </c>
+      <c r="B478" t="s" s="413">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="414">
+        <v>12</v>
+      </c>
+      <c r="B479" t="s" s="415">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="416">
+        <v>10</v>
+      </c>
+      <c r="B480" t="s" s="417">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="418">
+        <v>15</v>
+      </c>
+      <c r="B481" t="s" s="419">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="420">
+        <v>14</v>
+      </c>
+      <c r="B482" t="s" s="421">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="422">
+        <v>13</v>
+      </c>
+      <c r="B483" t="s" s="423">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="424">
+        <v>16</v>
+      </c>
+      <c r="B484" t="s" s="425">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="426">
+        <v>26</v>
+      </c>
+      <c r="B485" t="s" s="427">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="428">
+        <v>206</v>
+      </c>
+      <c r="B486" t="s" s="429">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="430">
+        <v>36</v>
+      </c>
+      <c r="B487" t="s" s="431">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="432">
+        <v>17</v>
+      </c>
+      <c r="B488" t="s" s="433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="434">
+        <v>230</v>
+      </c>
+      <c r="B489" t="s" s="435">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="436">
+        <v>39</v>
+      </c>
+      <c r="B490" t="s" s="437">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="439">
+        <v>205</v>
+      </c>
+      <c r="B491" t="s" s="440">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="441">
+        <v>205</v>
+      </c>
+      <c r="B492" t="s" s="442">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="443">
+        <v>31</v>
+      </c>
+      <c r="B493" t="s" s="444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="445">
+        <v>37</v>
+      </c>
+      <c r="B494" t="s" s="446">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="447">
+        <v>264</v>
+      </c>
+      <c r="B495" t="s" s="448">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="449">
+        <v>5</v>
+      </c>
+      <c r="B496" t="s" s="450">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="451">
+        <v>9</v>
+      </c>
+      <c r="B497" t="s" s="452">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="453">
+        <v>12</v>
+      </c>
+      <c r="B498" t="s" s="454">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="455">
+        <v>10</v>
+      </c>
+      <c r="B499" t="s" s="456">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="457">
+        <v>15</v>
+      </c>
+      <c r="B500" t="s" s="458">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="459">
+        <v>14</v>
+      </c>
+      <c r="B501" t="s" s="460">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="461">
+        <v>13</v>
+      </c>
+      <c r="B502" t="s" s="462">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="463">
+        <v>16</v>
+      </c>
+      <c r="B503" t="s" s="464">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="465">
+        <v>26</v>
+      </c>
+      <c r="B504" t="s" s="466">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="467">
+        <v>206</v>
+      </c>
+      <c r="B505" t="s" s="468">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="469">
+        <v>36</v>
+      </c>
+      <c r="B506" t="s" s="470">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="471">
+        <v>17</v>
+      </c>
+      <c r="B507" t="s" s="472">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="473">
+        <v>230</v>
+      </c>
+      <c r="B508" t="s" s="474">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="475">
+        <v>264</v>
+      </c>
+      <c r="B509" t="s" s="476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="478">
+        <v>205</v>
+      </c>
+      <c r="B510" t="s" s="479">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="480">
+        <v>36</v>
+      </c>
+      <c r="B511" t="s" s="481">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="482">
+        <v>205</v>
+      </c>
+      <c r="B512" t="s" s="483">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="484">
+        <v>31</v>
+      </c>
+      <c r="B513" t="s" s="485">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="486">
+        <v>37</v>
+      </c>
+      <c r="B514" t="s" s="487">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="488">
+        <v>264</v>
+      </c>
+      <c r="B515" t="s" s="489">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="490">
+        <v>5</v>
+      </c>
+      <c r="B516" t="s" s="491">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="492">
+        <v>9</v>
+      </c>
+      <c r="B517" t="s" s="493">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="494">
+        <v>12</v>
+      </c>
+      <c r="B518" t="s" s="495">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="496">
+        <v>10</v>
+      </c>
+      <c r="B519" t="s" s="497">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="498">
+        <v>15</v>
+      </c>
+      <c r="B520" t="s" s="499">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="500">
+        <v>14</v>
+      </c>
+      <c r="B521" t="s" s="501">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="502">
+        <v>13</v>
+      </c>
+      <c r="B522" t="s" s="503">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="504">
+        <v>16</v>
+      </c>
+      <c r="B523" t="s" s="505">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="506">
+        <v>26</v>
+      </c>
+      <c r="B524" t="s" s="507">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="508">
+        <v>206</v>
+      </c>
+      <c r="B525" t="s" s="509">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="510">
+        <v>17</v>
+      </c>
+      <c r="B526" t="s" s="511">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="512">
+        <v>36</v>
+      </c>
+      <c r="B527" t="s" s="513">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="514">
+        <v>269</v>
+      </c>
+      <c r="B528" t="s" s="515">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="516">
+        <v>39</v>
+      </c>
+      <c r="B529" t="s" s="517">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="519">
+        <v>205</v>
+      </c>
+      <c r="B530" t="s" s="520">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="521">
+        <v>36</v>
+      </c>
+      <c r="B531" t="s" s="522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="523">
+        <v>205</v>
+      </c>
+      <c r="B532" t="s" s="524">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="525">
+        <v>31</v>
+      </c>
+      <c r="B533" t="s" s="526">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="527">
+        <v>37</v>
+      </c>
+      <c r="B534" t="s" s="528">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="529">
+        <v>264</v>
+      </c>
+      <c r="B535" t="s" s="530">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="531">
+        <v>5</v>
+      </c>
+      <c r="B536" t="s" s="532">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="533">
+        <v>9</v>
+      </c>
+      <c r="B537" t="s" s="534">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="535">
+        <v>12</v>
+      </c>
+      <c r="B538" t="s" s="536">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="537">
+        <v>10</v>
+      </c>
+      <c r="B539" t="s" s="538">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="539">
+        <v>15</v>
+      </c>
+      <c r="B540" t="s" s="540">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="541">
+        <v>14</v>
+      </c>
+      <c r="B541" t="s" s="542">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="543">
+        <v>13</v>
+      </c>
+      <c r="B542" t="s" s="544">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="545">
+        <v>16</v>
+      </c>
+      <c r="B543" t="s" s="546">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="547">
+        <v>26</v>
+      </c>
+      <c r="B544" t="s" s="548">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="549">
+        <v>206</v>
+      </c>
+      <c r="B545" t="s" s="550">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="551">
+        <v>17</v>
+      </c>
+      <c r="B546" t="s" s="552">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="553">
+        <v>36</v>
+      </c>
+      <c r="B547" t="s" s="554">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="555">
+        <v>269</v>
+      </c>
+      <c r="B548" t="s" s="556">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="557">
+        <v>39</v>
+      </c>
+      <c r="B549" t="s" s="558">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="560">
+        <v>205</v>
+      </c>
+      <c r="B550" t="s" s="561">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B551" t="s" s="563">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="564">
+        <v>205</v>
+      </c>
+      <c r="B552" t="s" s="565">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="566">
+        <v>31</v>
+      </c>
+      <c r="B553" t="s" s="567">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="568">
+        <v>37</v>
+      </c>
+      <c r="B554" t="s" s="569">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="570">
+        <v>264</v>
+      </c>
+      <c r="B555" t="s" s="571">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="572">
+        <v>5</v>
+      </c>
+      <c r="B556" t="s" s="573">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="574">
+        <v>9</v>
+      </c>
+      <c r="B557" t="s" s="575">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="576">
+        <v>12</v>
+      </c>
+      <c r="B558" t="s" s="577">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="578">
+        <v>10</v>
+      </c>
+      <c r="B559" t="s" s="579">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="580">
+        <v>15</v>
+      </c>
+      <c r="B560" t="s" s="581">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="582">
+        <v>14</v>
+      </c>
+      <c r="B561" t="s" s="583">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="584">
+        <v>13</v>
+      </c>
+      <c r="B562" t="s" s="585">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="586">
+        <v>16</v>
+      </c>
+      <c r="B563" t="s" s="587">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="588">
+        <v>26</v>
+      </c>
+      <c r="B564" t="s" s="589">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="590">
+        <v>206</v>
+      </c>
+      <c r="B565" t="s" s="591">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="592">
+        <v>17</v>
+      </c>
+      <c r="B566" t="s" s="593">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="594">
+        <v>36</v>
+      </c>
+      <c r="B567" t="s" s="595">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="596">
+        <v>269</v>
+      </c>
+      <c r="B568" t="s" s="597">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="598">
+        <v>39</v>
+      </c>
+      <c r="B569" t="s" s="599">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="601">
+        <v>205</v>
+      </c>
+      <c r="B570" t="s" s="602">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="603">
+        <v>36</v>
+      </c>
+      <c r="B571" t="s" s="604">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="605">
+        <v>205</v>
+      </c>
+      <c r="B572" t="s" s="606">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="607">
+        <v>31</v>
+      </c>
+      <c r="B573" t="s" s="608">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="609">
+        <v>37</v>
+      </c>
+      <c r="B574" t="s" s="610">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="611">
+        <v>264</v>
+      </c>
+      <c r="B575" t="s" s="612">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="613">
+        <v>5</v>
+      </c>
+      <c r="B576" t="s" s="614">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="615">
+        <v>9</v>
+      </c>
+      <c r="B577" t="s" s="616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="617">
+        <v>12</v>
+      </c>
+      <c r="B578" t="s" s="618">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="619">
+        <v>10</v>
+      </c>
+      <c r="B579" t="s" s="620">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="621">
+        <v>15</v>
+      </c>
+      <c r="B580" t="s" s="622">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="623">
+        <v>14</v>
+      </c>
+      <c r="B581" t="s" s="624">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="625">
+        <v>13</v>
+      </c>
+      <c r="B582" t="s" s="626">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="627">
+        <v>16</v>
+      </c>
+      <c r="B583" t="s" s="628">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="629">
+        <v>26</v>
+      </c>
+      <c r="B584" t="s" s="630">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="631">
+        <v>295</v>
+      </c>
+      <c r="B585" t="s" s="632">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="633">
+        <v>206</v>
+      </c>
+      <c r="B586" t="s" s="634">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="635">
+        <v>17</v>
+      </c>
+      <c r="B587" t="s" s="636">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="637">
+        <v>36</v>
+      </c>
+      <c r="B588" t="s" s="638">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="639">
+        <v>39</v>
+      </c>
+      <c r="B589" t="s" s="640">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="642">
+        <v>205</v>
+      </c>
+      <c r="B590" t="s" s="643">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="644">
+        <v>36</v>
+      </c>
+      <c r="B591" t="s" s="645">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="646">
+        <v>205</v>
+      </c>
+      <c r="B592" t="s" s="647">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="648">
+        <v>31</v>
+      </c>
+      <c r="B593" t="s" s="649">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="650">
+        <v>37</v>
+      </c>
+      <c r="B594" t="s" s="651">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="652">
+        <v>264</v>
+      </c>
+      <c r="B595" t="s" s="653">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="654">
+        <v>5</v>
+      </c>
+      <c r="B596" t="s" s="655">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="656">
+        <v>9</v>
+      </c>
+      <c r="B597" t="s" s="657">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="658">
+        <v>12</v>
+      </c>
+      <c r="B598" t="s" s="659">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="660">
+        <v>10</v>
+      </c>
+      <c r="B599" t="s" s="661">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="662">
+        <v>15</v>
+      </c>
+      <c r="B600" t="s" s="663">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="664">
+        <v>14</v>
+      </c>
+      <c r="B601" t="s" s="665">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="666">
+        <v>13</v>
+      </c>
+      <c r="B602" t="s" s="667">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="668">
+        <v>16</v>
+      </c>
+      <c r="B603" t="s" s="669">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="670">
+        <v>26</v>
+      </c>
+      <c r="B604" t="s" s="671">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="672">
+        <v>206</v>
+      </c>
+      <c r="B605" t="s" s="673">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="674">
+        <v>295</v>
+      </c>
+      <c r="B606" t="s" s="675">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="676">
+        <v>17</v>
+      </c>
+      <c r="B607" t="s" s="677">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="678">
+        <v>36</v>
+      </c>
+      <c r="B608" t="s" s="679">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="680">
+        <v>39</v>
+      </c>
+      <c r="B609" t="s" s="681">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="683">
+        <v>205</v>
+      </c>
+      <c r="B610" t="s" s="684">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="685">
+        <v>36</v>
+      </c>
+      <c r="B611" t="s" s="686">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="687">
+        <v>205</v>
+      </c>
+      <c r="B612" t="s" s="688">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="689">
+        <v>31</v>
+      </c>
+      <c r="B613" t="s" s="690">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="691">
+        <v>37</v>
+      </c>
+      <c r="B614" t="s" s="692">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="693">
+        <v>264</v>
+      </c>
+      <c r="B615" t="s" s="694">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="695">
+        <v>5</v>
+      </c>
+      <c r="B616" t="s" s="696">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="697">
+        <v>9</v>
+      </c>
+      <c r="B617" t="s" s="698">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="699">
+        <v>12</v>
+      </c>
+      <c r="B618" t="s" s="700">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="701">
+        <v>10</v>
+      </c>
+      <c r="B619" t="s" s="702">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="703">
+        <v>15</v>
+      </c>
+      <c r="B620" t="s" s="704">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="705">
+        <v>14</v>
+      </c>
+      <c r="B621" t="s" s="706">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="707">
+        <v>13</v>
+      </c>
+      <c r="B622" t="s" s="708">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="709">
+        <v>16</v>
+      </c>
+      <c r="B623" t="s" s="710">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="711">
+        <v>26</v>
+      </c>
+      <c r="B624" t="s" s="712">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="713">
+        <v>206</v>
+      </c>
+      <c r="B625" t="s" s="714">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="715">
+        <v>295</v>
+      </c>
+      <c r="B626" t="s" s="716">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="717">
+        <v>17</v>
+      </c>
+      <c r="B627" t="s" s="718">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="719">
+        <v>36</v>
+      </c>
+      <c r="B628" t="s" s="720">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="721">
+        <v>264</v>
+      </c>
+      <c r="B629" t="s" s="722">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="724">
+        <v>205</v>
+      </c>
+      <c r="B630" t="s" s="725">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="726">
+        <v>36</v>
+      </c>
+      <c r="B631" t="s" s="727">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="728">
+        <v>205</v>
+      </c>
+      <c r="B632" t="s" s="729">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="730">
+        <v>31</v>
+      </c>
+      <c r="B633" t="s" s="731">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="732">
+        <v>37</v>
+      </c>
+      <c r="B634" t="s" s="733">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="734">
+        <v>264</v>
+      </c>
+      <c r="B635" t="s" s="735">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="736">
+        <v>5</v>
+      </c>
+      <c r="B636" t="s" s="737">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="738">
+        <v>9</v>
+      </c>
+      <c r="B637" t="s" s="739">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="740">
+        <v>12</v>
+      </c>
+      <c r="B638" t="s" s="741">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="742">
+        <v>10</v>
+      </c>
+      <c r="B639" t="s" s="743">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="744">
+        <v>15</v>
+      </c>
+      <c r="B640" t="s" s="745">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="746">
+        <v>14</v>
+      </c>
+      <c r="B641" t="s" s="747">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="748">
+        <v>13</v>
+      </c>
+      <c r="B642" t="s" s="749">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="750">
+        <v>16</v>
+      </c>
+      <c r="B643" t="s" s="751">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="752">
+        <v>26</v>
+      </c>
+      <c r="B644" t="s" s="753">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="754">
+        <v>206</v>
+      </c>
+      <c r="B645" t="s" s="755">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="756">
+        <v>295</v>
+      </c>
+      <c r="B646" t="s" s="757">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="758">
+        <v>17</v>
+      </c>
+      <c r="B647" t="s" s="759">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="760">
+        <v>36</v>
+      </c>
+      <c r="B648" t="s" s="761">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="762">
+        <v>39</v>
+      </c>
+      <c r="B649" t="s" s="763">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="765">
+        <v>205</v>
+      </c>
+      <c r="B650" t="s" s="766">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="767">
+        <v>36</v>
+      </c>
+      <c r="B651" t="s" s="768">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="769">
+        <v>205</v>
+      </c>
+      <c r="B652" t="s" s="770">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="771">
+        <v>31</v>
+      </c>
+      <c r="B653" t="s" s="772">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="773">
+        <v>37</v>
+      </c>
+      <c r="B654" t="s" s="774">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="775">
+        <v>264</v>
+      </c>
+      <c r="B655" t="s" s="776">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="777">
+        <v>5</v>
+      </c>
+      <c r="B656" t="s" s="778">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s" s="779">
+        <v>9</v>
+      </c>
+      <c r="B657" t="s" s="780">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s" s="781">
+        <v>12</v>
+      </c>
+      <c r="B658" t="s" s="782">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s" s="783">
+        <v>10</v>
+      </c>
+      <c r="B659" t="s" s="784">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s" s="785">
+        <v>15</v>
+      </c>
+      <c r="B660" t="s" s="786">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s" s="787">
+        <v>14</v>
+      </c>
+      <c r="B661" t="s" s="788">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s" s="789">
+        <v>13</v>
+      </c>
+      <c r="B662" t="s" s="790">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s" s="791">
+        <v>16</v>
+      </c>
+      <c r="B663" t="s" s="792">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s" s="793">
+        <v>26</v>
+      </c>
+      <c r="B664" t="s" s="794">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s" s="795">
+        <v>206</v>
+      </c>
+      <c r="B665" t="s" s="796">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s" s="797">
+        <v>17</v>
+      </c>
+      <c r="B666" t="s" s="798">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s" s="799">
+        <v>36</v>
+      </c>
+      <c r="B667" t="s" s="800">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s" s="801">
+        <v>269</v>
+      </c>
+      <c r="B668" t="s" s="802">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s" s="803">
+        <v>39</v>
+      </c>
+      <c r="B669" t="s" s="804">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s" s="806">
+        <v>205</v>
+      </c>
+      <c r="B670" t="s" s="807">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s" s="808">
+        <v>36</v>
+      </c>
+      <c r="B671" t="s" s="809">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s" s="810">
+        <v>205</v>
+      </c>
+      <c r="B672" t="s" s="811">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s" s="812">
+        <v>31</v>
+      </c>
+      <c r="B673" t="s" s="813">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s" s="814">
+        <v>37</v>
+      </c>
+      <c r="B674" t="s" s="815">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s" s="816">
+        <v>264</v>
+      </c>
+      <c r="B675" t="s" s="817">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s" s="818">
+        <v>5</v>
+      </c>
+      <c r="B676" t="s" s="819">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s" s="820">
+        <v>9</v>
+      </c>
+      <c r="B677" t="s" s="821">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s" s="822">
+        <v>12</v>
+      </c>
+      <c r="B678" t="s" s="823">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s" s="824">
+        <v>10</v>
+      </c>
+      <c r="B679" t="s" s="825">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s" s="826">
+        <v>15</v>
+      </c>
+      <c r="B680" t="s" s="827">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s" s="828">
+        <v>14</v>
+      </c>
+      <c r="B681" t="s" s="829">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s" s="830">
+        <v>13</v>
+      </c>
+      <c r="B682" t="s" s="831">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s" s="832">
+        <v>16</v>
+      </c>
+      <c r="B683" t="s" s="833">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s" s="834">
+        <v>26</v>
+      </c>
+      <c r="B684" t="s" s="835">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s" s="836">
+        <v>206</v>
+      </c>
+      <c r="B685" t="s" s="837">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s" s="838">
+        <v>295</v>
+      </c>
+      <c r="B686" t="s" s="839">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s" s="840">
+        <v>17</v>
+      </c>
+      <c r="B687" t="s" s="841">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s" s="842">
+        <v>36</v>
+      </c>
+      <c r="B688" t="s" s="843">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s" s="844">
+        <v>264</v>
+      </c>
+      <c r="B689" t="s" s="845">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s" s="847">
+        <v>205</v>
+      </c>
+      <c r="B690" t="s" s="848">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s" s="849">
+        <v>36</v>
+      </c>
+      <c r="B691" t="s" s="850">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s" s="851">
+        <v>205</v>
+      </c>
+      <c r="B692" t="s" s="852">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s" s="853">
+        <v>31</v>
+      </c>
+      <c r="B693" t="s" s="854">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s" s="855">
+        <v>37</v>
+      </c>
+      <c r="B694" t="s" s="856">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s" s="857">
+        <v>264</v>
+      </c>
+      <c r="B695" t="s" s="858">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s" s="859">
+        <v>5</v>
+      </c>
+      <c r="B696" t="s" s="860">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s" s="861">
+        <v>9</v>
+      </c>
+      <c r="B697" t="s" s="862">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s" s="863">
+        <v>12</v>
+      </c>
+      <c r="B698" t="s" s="864">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s" s="865">
+        <v>10</v>
+      </c>
+      <c r="B699" t="s" s="866">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s" s="867">
+        <v>15</v>
+      </c>
+      <c r="B700" t="s" s="868">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s" s="869">
+        <v>14</v>
+      </c>
+      <c r="B701" t="s" s="870">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s" s="871">
+        <v>13</v>
+      </c>
+      <c r="B702" t="s" s="872">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s" s="873">
+        <v>16</v>
+      </c>
+      <c r="B703" t="s" s="874">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s" s="875">
+        <v>26</v>
+      </c>
+      <c r="B704" t="s" s="876">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s" s="877">
+        <v>206</v>
+      </c>
+      <c r="B705" t="s" s="878">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s" s="879">
+        <v>17</v>
+      </c>
+      <c r="B706" t="s" s="880">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s" s="881">
+        <v>36</v>
+      </c>
+      <c r="B707" t="s" s="882">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s" s="883">
+        <v>269</v>
+      </c>
+      <c r="B708" t="s" s="884">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s" s="885">
+        <v>39</v>
+      </c>
+      <c r="B709" t="s" s="886">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s" s="888">
+        <v>205</v>
+      </c>
+      <c r="B710" t="s" s="889">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s" s="890">
+        <v>205</v>
+      </c>
+      <c r="B711" t="s" s="891">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s" s="892">
+        <v>31</v>
+      </c>
+      <c r="B712" t="s" s="893">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s" s="894">
+        <v>37</v>
+      </c>
+      <c r="B713" t="s" s="895">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s" s="896">
+        <v>264</v>
+      </c>
+      <c r="B714" t="s" s="897">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s" s="898">
+        <v>5</v>
+      </c>
+      <c r="B715" t="s" s="899">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s" s="900">
+        <v>9</v>
+      </c>
+      <c r="B716" t="s" s="901">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s" s="902">
+        <v>12</v>
+      </c>
+      <c r="B717" t="s" s="903">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s" s="904">
+        <v>10</v>
+      </c>
+      <c r="B718" t="s" s="905">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s" s="906">
+        <v>15</v>
+      </c>
+      <c r="B719" t="s" s="907">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s" s="908">
+        <v>14</v>
+      </c>
+      <c r="B720" t="s" s="909">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s" s="910">
+        <v>13</v>
+      </c>
+      <c r="B721" t="s" s="911">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s" s="912">
+        <v>16</v>
+      </c>
+      <c r="B722" t="s" s="913">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s" s="914">
+        <v>26</v>
+      </c>
+      <c r="B723" t="s" s="915">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="916">
+        <v>206</v>
+      </c>
+      <c r="B724" t="s" s="917">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s" s="918">
+        <v>36</v>
+      </c>
+      <c r="B725" t="s" s="919">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="920">
+        <v>17</v>
+      </c>
+      <c r="B726" t="s" s="921">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s" s="922">
+        <v>269</v>
+      </c>
+      <c r="B727" t="s" s="923">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s" s="924">
+        <v>39</v>
+      </c>
+      <c r="B728" t="s" s="925">
         <v>6</v>
       </c>
     </row>
@@ -3610,7 +10144,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587F6E7-417F-4942-A622-4F6113405A96}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
@@ -3618,11 +10152,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.1796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="43.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -4201,6 +10735,57 @@
       </c>
       <c r="E34" s="7" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="11">
+        <v>261</v>
+      </c>
+      <c r="B35" t="s" s="12">
+        <v>262</v>
+      </c>
+      <c r="C35" t="s" s="13">
+        <v>254</v>
+      </c>
+      <c r="D35" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s" s="15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="40">
+        <v>265</v>
+      </c>
+      <c r="B36" t="s" s="41">
+        <v>266</v>
+      </c>
+      <c r="C36" t="s" s="42">
+        <v>267</v>
+      </c>
+      <c r="D36" t="s" s="43">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s" s="44">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="61">
+        <v>270</v>
+      </c>
+      <c r="B37" t="s" s="62">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s" s="63">
+        <v>271</v>
+      </c>
+      <c r="D37" t="s" s="64">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s" s="65">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4218,12 +10803,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.36328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -4993,7 +11578,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9709AFC8-5DA7-42E1-8CC9-7FFC2FDEE40D}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
@@ -5001,12 +11586,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.54296875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -5330,7 +11915,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
